--- a/training_data/data_set5/RandomRequestNumberclientv_single_worker_node#loops1#requests_batch50#Thu-Aug--8-13-18-05-2024.xlsx
+++ b/training_data/data_set5/RandomRequestNumberclientv_single_worker_node#loops1#requests_batch50#Thu-Aug--8-13-18-05-2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model_fit\training\training_data\data_set5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\training\training_data\data_set5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5342130D-68F3-4D37-A452-54FE64526C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F15D93-24CD-4F54-BFBE-2B49EA260C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1728" windowWidth="37296" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -55,12 +55,6 @@
     <t>choosen_ip</t>
   </si>
   <si>
-    <t>processed_and_waited_time_on_manager_node</t>
-  </si>
-  <si>
-    <t>processed_time_on_worker_node</t>
-  </si>
-  <si>
     <t>manager_received_request_timestamp</t>
   </si>
   <si>
@@ -80,22 +74,30 @@
     <t>response_received_timestamp_on_manager_node</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>processed_time_on_worker_node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processed_and_waited_time_on_manager_node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -104,7 +106,17 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -128,9 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,31 +449,30 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.296875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="23.69921875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="48.3984375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="45.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,29 +503,29 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>334669</v>
       </c>
@@ -542,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2">
         <v>1.1487722396850589E-2</v>
@@ -566,7 +578,7 @@
         <v>4.6502492427825928</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>381017</v>
       </c>
@@ -595,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3">
         <v>9.6139907836914063E-3</v>
@@ -619,7 +631,7 @@
         <v>5.6034259796142578</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>271005</v>
       </c>
@@ -648,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K4">
         <v>8.8429450988769531E-3</v>
@@ -672,7 +684,7 @@
         <v>3.4557969570159912</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>372250</v>
       </c>
@@ -701,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K5">
         <v>4.01580810546875</v>
@@ -725,7 +737,7 @@
         <v>9.379711389541626</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>412523</v>
       </c>
@@ -754,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K6">
         <v>4.9694428443908691</v>
@@ -778,7 +790,7 @@
         <v>11.21239352226257</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>389111</v>
       </c>
@@ -807,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K7">
         <v>2.8320531845092769</v>
@@ -831,7 +843,7 @@
         <v>8.5487961769104004</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>388174</v>
       </c>
@@ -860,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K8">
         <v>8.7524638175964355</v>
@@ -884,7 +896,7 @@
         <v>14.484738349914551</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>499351</v>
       </c>
@@ -913,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9">
         <v>10.58500647544861</v>
@@ -937,7 +949,7 @@
         <v>18.79380035400391</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>256294</v>
       </c>
@@ -966,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K10">
         <v>7.9103164672851563</v>
@@ -990,7 +1002,7 @@
         <v>11.02927207946777</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>238304</v>
       </c>
@@ -1019,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K11">
         <v>13.84546995162964</v>
@@ -1043,7 +1055,7 @@
         <v>16.675479888916019</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>148812</v>
       </c>
@@ -1072,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K12">
         <v>18.154180288314819</v>
@@ -1096,7 +1108,7 @@
         <v>19.62887787818909</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>143071</v>
       </c>
@@ -1125,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K13">
         <v>10.38931441307068</v>
@@ -1149,7 +1161,7 @@
         <v>11.775933504104611</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>260802</v>
       </c>
@@ -1178,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K14">
         <v>16.035120487213131</v>
@@ -1202,7 +1214,7 @@
         <v>19.258721351623539</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>365724</v>
       </c>
@@ -1231,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K15">
         <v>18.98915529251099</v>
@@ -1255,7 +1267,7 @@
         <v>24.219428777694699</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>42800</v>
       </c>
@@ -1284,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K16">
         <v>11.138296127319339</v>
@@ -1308,7 +1320,7 @@
         <v>11.43740391731262</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>435893</v>
       </c>
@@ -1337,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K17">
         <v>18.619645118713379</v>
@@ -1361,7 +1373,7 @@
         <v>25.38330245018005</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>379073</v>
       </c>
@@ -1390,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K18">
         <v>23.578196048736569</v>
@@ -1414,7 +1426,7 @@
         <v>29.115952968597409</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>106535</v>
       </c>
@@ -1443,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K19">
         <v>10.7956485748291</v>
@@ -1467,7 +1479,7 @@
         <v>11.714689970016479</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>75975</v>
       </c>
@@ -1496,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K20">
         <v>24.757080793380741</v>
@@ -1520,7 +1532,7 @@
         <v>25.356509447097778</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>407824</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K21">
         <v>11.306240558624269</v>
@@ -1573,7 +1585,7 @@
         <v>17.407878875732418</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>80965</v>
       </c>
@@ -1602,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K22">
         <v>28.27612042427063</v>
@@ -1626,7 +1638,7 @@
         <v>28.912514925003052</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>353201</v>
       </c>
@@ -1655,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K23">
         <v>24.55647349357605</v>
@@ -1679,7 +1691,7 @@
         <v>29.549442529678341</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>476930</v>
       </c>
@@ -1708,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K24">
         <v>24.515691518783569</v>
@@ -1732,7 +1744,7 @@
         <v>32.225282192230218</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1804</v>
       </c>
@@ -1761,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K25">
         <v>32.032232761383057</v>
@@ -1785,7 +1797,7 @@
         <v>32.042184591293328</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>283129</v>
       </c>
@@ -1814,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K26">
         <v>28.08774471282959</v>
@@ -1838,7 +1850,7 @@
         <v>31.70413446426392</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>95815</v>
       </c>
@@ -1867,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K27">
         <v>28.711446762084961</v>
@@ -1891,7 +1903,7 @@
         <v>29.518469095230099</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>146490</v>
       </c>
@@ -1920,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K28">
         <v>33.764875411987298</v>
@@ -1944,7 +1956,7 @@
         <v>35.191727638244629</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>266507</v>
       </c>
@@ -1973,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K29">
         <v>31.065489292144779</v>
@@ -1997,7 +2009,7 @@
         <v>34.384763717651367</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>343104</v>
       </c>
@@ -2026,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K30">
         <v>34.172223806381233</v>
@@ -2050,7 +2062,7 @@
         <v>38.963824033737183</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>119423</v>
       </c>
@@ -2079,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K31">
         <v>28.663730144500729</v>
@@ -2103,7 +2115,7 @@
         <v>29.724861145019531</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>103954</v>
       </c>
@@ -2132,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K32">
         <v>34.332873106002808</v>
@@ -2156,7 +2168,7 @@
         <v>35.241113662719727</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>88575</v>
       </c>
@@ -2185,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K33">
         <v>38.324550151824951</v>
@@ -2209,7 +2221,7 @@
         <v>39.067837953567498</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>474892</v>
       </c>
@@ -2238,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K34">
         <v>29.099304676055912</v>
@@ -2262,7 +2274,7 @@
         <v>36.741804361343377</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>392376</v>
       </c>
@@ -2291,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K35">
         <v>34.612779140472412</v>
@@ -2315,7 +2327,7 @@
         <v>40.418338060379028</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>498225</v>
       </c>
@@ -2344,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K36">
         <v>38.443286418914788</v>
@@ -2368,7 +2380,7 @@
         <v>46.646352052688599</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>494710</v>
       </c>
@@ -2397,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K37">
         <v>36.100635766983032</v>
@@ -2421,7 +2433,7 @@
         <v>44.205821514129639</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>303411</v>
       </c>
@@ -2450,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K38">
         <v>39.775267839431763</v>
@@ -2474,7 +2486,7 @@
         <v>43.776805400848389</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>355176</v>
       </c>
@@ -2503,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K39">
         <v>46.000789165496833</v>
@@ -2527,7 +2539,7 @@
         <v>51.015971899032593</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>230177</v>
       </c>
@@ -2556,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K40">
         <v>43.565829038620002</v>
@@ -2580,7 +2592,7 @@
         <v>46.262908935546882</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>484124</v>
       </c>
@@ -2609,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K41">
         <v>43.136062145233147</v>
@@ -2633,7 +2645,7 @@
         <v>51.025675058364868</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>497595</v>
       </c>
@@ -2662,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K42">
         <v>50.378469467163093</v>
@@ -2686,7 +2698,7 @@
         <v>58.541346311569207</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>204408</v>
       </c>
@@ -2715,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K43">
         <v>45.621261596679688</v>
@@ -2739,7 +2751,7 @@
         <v>47.88022255897522</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>269840</v>
       </c>
@@ -2768,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K44">
         <v>50.384416103363037</v>
@@ -2792,7 +2804,7 @@
         <v>53.749328374862671</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>27114</v>
       </c>
@@ -2821,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K45">
         <v>57.901901245117188</v>
@@ -2845,7 +2857,7 @@
         <v>58.07955002784729</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>170577</v>
       </c>
@@ -2874,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K46">
         <v>47.241857528686523</v>
@@ -2898,7 +2910,7 @@
         <v>49.01564621925354</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>419312</v>
       </c>
@@ -2927,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K47">
         <v>53.110462665557861</v>
@@ -2951,7 +2963,7 @@
         <v>59.494323968887329</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>471736</v>
       </c>
@@ -2980,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K48">
         <v>11.708919286727911</v>
@@ -3004,7 +3016,7 @@
         <v>19.26634311676025</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>416527</v>
       </c>
@@ -3033,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K49">
         <v>57.227097511291497</v>
@@ -3057,7 +3069,7 @@
         <v>63.553102731704712</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>209154</v>
       </c>
@@ -3086,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K50">
         <v>26.739229202270511</v>
@@ -3110,7 +3122,7 @@
         <v>29.078457832336429</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>461702</v>
       </c>
@@ -3139,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K51">
         <v>47.951186656951897</v>
